--- a/crypto.xlsx
+++ b/crypto.xlsx
@@ -471,22 +471,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$20,198.85</t>
+          <t>$20,159.37</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-6.6%</t>
+          <t>-6.7%</t>
         </is>
       </c>
     </row>
@@ -501,22 +501,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,540.45</t>
+          <t>$1,534.47</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-5.5%</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.2%</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$1.00</t>
+          <t>$0.999624</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$284.10</t>
+          <t>$283.85</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-6.2%</t>
+          <t>-6.3%</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -651,22 +651,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$0.331635</t>
+          <t>$0.331173</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-4.4%</t>
+          <t>-4.6%</t>
         </is>
       </c>
     </row>
@@ -681,22 +681,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$0.448272</t>
+          <t>$0.447702</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-3.7%</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$32.10</t>
+          <t>$32.07</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-12.1%</t>
+          <t>-12.2%</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$0.063481700756</t>
+          <t>$0.063391732628</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-8.8%</t>
+          <t>-8.9%</t>
         </is>
       </c>
     </row>
@@ -771,22 +771,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$7.23</t>
+          <t>$7.22</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>-3.2%</t>
         </is>
       </c>
     </row>
@@ -801,22 +801,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$0.000012420674</t>
+          <t>$0.000012407318</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-8.3%</t>
+          <t>-8.4%</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -861,22 +861,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$1,499.37</t>
+          <t>$1,494.72</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>-5.4%</t>
         </is>
       </c>
     </row>
@@ -891,22 +891,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$0.813681</t>
+          <t>$0.811206</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-1.5%</t>
         </is>
       </c>
     </row>
@@ -921,22 +921,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$0.063242291236</t>
+          <t>$0.063103243980</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-4.6%</t>
+          <t>-4.8%</t>
         </is>
       </c>
     </row>
@@ -951,22 +951,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$19.22</t>
+          <t>$19.18</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-16.7%</t>
+          <t>-16.8%</t>
         </is>
       </c>
     </row>
@@ -981,22 +981,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$20,176.83</t>
+          <t>$20,148.64</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-6.7%</t>
+          <t>-6.8%</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1011,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$5.27</t>
+          <t>$5.25</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.5%</t>
         </is>
       </c>
     </row>
@@ -1041,22 +1041,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$33.23</t>
+          <t>$33.13</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-2.0%</t>
+          <t>-2.3%</t>
         </is>
       </c>
     </row>
@@ -1071,22 +1071,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$16.34</t>
+          <t>$16.28</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-8.6%</t>
+          <t>-8.9%</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$55.45</t>
+          <t>$55.33</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.7%</t>
         </is>
       </c>
     </row>
@@ -1131,22 +1131,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$27.17</t>
+          <t>$27.11</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>-2.5%</t>
         </is>
       </c>
     </row>
@@ -1161,22 +1161,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$11.24</t>
+          <t>$11.21</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>5.0%</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$6.66</t>
+          <t>$6.65</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1221,22 +1221,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$0.122208</t>
+          <t>$0.122003</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-4.8%</t>
+          <t>-4.9%</t>
         </is>
       </c>
     </row>
@@ -1256,17 +1256,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>-6.0%</t>
         </is>
       </c>
     </row>
@@ -1281,22 +1281,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$6.28</t>
+          <t>$6.27</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-13.2%</t>
+          <t>-13.4%</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$152.33</t>
+          <t>$152.42</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>-1.8%</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$0.105038</t>
+          <t>$0.105009</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$118.20</t>
+          <t>$118.29</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>-1.2%</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$0.296639</t>
+          <t>$0.296258</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>-4.0%</t>
         </is>
       </c>
     </row>
@@ -1436,17 +1436,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-11.5%</t>
+          <t>-11.7%</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$0.084209918984</t>
+          <t>$0.084182183085</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>-3.7%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-8.0%</t>
+          <t>-8.1%</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$0.024670884517</t>
+          <t>$0.024674757503</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1521,22 +1521,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$6.67</t>
+          <t>$6.64</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.6%</t>
         </is>
       </c>
     </row>
@@ -1551,22 +1551,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$5.98</t>
+          <t>$5.96</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-7.0%</t>
+          <t>-7.3%</t>
         </is>
       </c>
     </row>
@@ -1581,22 +1581,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$4.93</t>
+          <t>$4.92</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-5.4%</t>
+          <t>-5.6%</t>
         </is>
       </c>
     </row>
@@ -1611,17 +1611,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$0.065788265049</t>
+          <t>$0.065763830581</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$0.999633</t>
+          <t>$0.999735</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1676,17 +1676,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-6.1%</t>
+          <t>-6.3%</t>
         </is>
       </c>
     </row>
@@ -1701,22 +1701,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$0.982855</t>
+          <t>$0.981512</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-8.8%</t>
+          <t>-8.9%</t>
         </is>
       </c>
     </row>
@@ -1731,22 +1731,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$0.788897</t>
+          <t>$0.789248</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-8.0%</t>
+          <t>-7.9%</t>
         </is>
       </c>
     </row>
@@ -1766,17 +1766,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-7.2%</t>
+          <t>-7.3%</t>
         </is>
       </c>
     </row>
@@ -1791,22 +1791,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$99.40</t>
+          <t>$99.46</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-10.5%</t>
+          <t>-10.4%</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$13.71</t>
+          <t>$13.68</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-5.9%</t>
+          <t>-6.1%</t>
         </is>
       </c>
     </row>
@@ -1851,22 +1851,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$52.59</t>
+          <t>$52.56</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>-4.4%</t>
         </is>
       </c>
     </row>
@@ -1881,22 +1881,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$84.83</t>
+          <t>$84.52</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>-2.1%</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-4.5%</t>
+          <t>-4.7%</t>
         </is>
       </c>
     </row>
@@ -1941,22 +1941,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$0.213632</t>
+          <t>$0.213132</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-1.0%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-4.4%</t>
+          <t>-5.3%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>13.5%</t>
+          <t>13.2%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.2%</t>
         </is>
       </c>
     </row>
@@ -2006,17 +2006,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>11.6%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-16.5%</t>
+          <t>-16.7%</t>
         </is>
       </c>
     </row>
@@ -2031,22 +2031,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$53.64</t>
+          <t>$53.44</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>-2.9%</t>
         </is>
       </c>
     </row>
@@ -2061,22 +2061,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$0.022627915133</t>
+          <t>$0.022647311333</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.2%</t>
         </is>
       </c>
     </row>
@@ -2091,22 +2091,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$0.000050941244</t>
+          <t>$0.000051470533</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>27.0%</t>
+          <t>28.3%</t>
         </is>
       </c>
     </row>
@@ -2121,17 +2121,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$1.00</t>
+          <t>$0.999592</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$9.06</t>
+          <t>$9.05</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-5.9%</t>
+          <t>-6.1%</t>
         </is>
       </c>
     </row>
@@ -2181,22 +2181,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$0.000000881194</t>
+          <t>$0.000000880646</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>-1.2%</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2211,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$3.48</t>
+          <t>$3.47</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>13.5%</t>
+          <t>12.8%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12.0%</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$63.43</t>
+          <t>$63.46</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>-2.9%</t>
+          <t>-2.8%</t>
         </is>
       </c>
     </row>
@@ -2271,12 +2271,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$0.288909</t>
+          <t>$0.288846</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2301,22 +2301,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$30.96</t>
+          <t>$30.90</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5.1%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-5.2%</t>
         </is>
       </c>
     </row>
@@ -2331,22 +2331,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$20,197.97</t>
+          <t>$20,102.27</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-6.7%</t>
+          <t>-7.1%</t>
         </is>
       </c>
     </row>
@@ -2366,17 +2366,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-10.9%</t>
+          <t>-11.0%</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$0.105283</t>
+          <t>$0.105149</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>-3.3%</t>
         </is>
       </c>
     </row>
@@ -2421,22 +2421,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$4.85</t>
+          <t>$4.84</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>9.1%</t>
         </is>
       </c>
     </row>
@@ -2451,17 +2451,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$0.999841</t>
+          <t>$1.00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2481,22 +2481,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$803.80</t>
+          <t>$803.05</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>8.3%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-4.5%</t>
+          <t>-4.6%</t>
         </is>
       </c>
     </row>
@@ -2506,27 +2506,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Klaytn</t>
+          <t>cDAI</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$0.237132</t>
+          <t>$0.022049059808</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
     </row>
@@ -2536,27 +2536,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fantom</t>
+          <t>Klaytn</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$0.280616</t>
+          <t>$0.236438</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-8.7%</t>
+          <t>-5.4%</t>
         </is>
       </c>
     </row>
@@ -2566,27 +2566,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>cDAI</t>
+          <t>Fantom</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$0.022050505649</t>
+          <t>$0.280241</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-8.8%</t>
         </is>
       </c>
     </row>
@@ -2601,22 +2601,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$0.977068</t>
+          <t>$0.977749</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.0%</t>
         </is>
       </c>
     </row>
@@ -2631,22 +2631,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$2.33</t>
+          <t>$2.35</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>24.0%</t>
+          <t>25.1%</t>
         </is>
       </c>
     </row>
@@ -2661,12 +2661,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$9.32</t>
+          <t>$9.31</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2696,17 +2696,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>-4.2%</t>
         </is>
       </c>
     </row>
@@ -2721,22 +2721,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$0.059438052193</t>
+          <t>$0.059490550936</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>-3.3%</t>
         </is>
       </c>
     </row>
@@ -2751,22 +2751,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$0.563626</t>
+          <t>$0.561398</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>17.0%</t>
         </is>
       </c>
     </row>
@@ -2781,17 +2781,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$1,727.57</t>
+          <t>$1,727.79</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2811,22 +2811,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$1.95</t>
+          <t>$1.94</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>-10.9%</t>
         </is>
       </c>
     </row>
@@ -2846,17 +2846,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
     </row>
@@ -2871,17 +2871,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$1.31</t>
+          <t>$1.32</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$0.976896</t>
+          <t>$0.977449</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2911,12 +2911,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>5.8%</t>
         </is>
       </c>
     </row>
@@ -2926,27 +2926,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Arweave</t>
+          <t>Zilliqa</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$10.85</t>
+          <t>$0.036751488602</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-14.5%</t>
+          <t>-3.0%</t>
         </is>
       </c>
     </row>
@@ -2956,27 +2956,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Zilliqa</t>
+          <t>Arweave</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$0.036794890898</t>
+          <t>$10.83</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-2.9%</t>
+          <t>-14.6%</t>
         </is>
       </c>
     </row>
@@ -2991,22 +2991,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$0.900269</t>
+          <t>$0.898056</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>11.2%</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$0.345230</t>
+          <t>$0.345190</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3086,17 +3086,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
     </row>
@@ -3111,22 +3111,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$0.370940</t>
+          <t>$0.369225</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>-7.3%</t>
+          <t>-7.7%</t>
         </is>
       </c>
     </row>
@@ -3141,22 +3141,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$0.006466567384</t>
+          <t>$0.006456866969</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-10.3%</t>
+          <t>-10.5%</t>
         </is>
       </c>
     </row>
@@ -3171,17 +3171,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$0.522742</t>
+          <t>$0.522495</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3201,17 +3201,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$0.021963160179</t>
+          <t>$0.021972589898</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -3227,22 +3227,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$2.40</t>
+          <t>$2.41</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-18.0%</t>
+          <t>-17.7%</t>
         </is>
       </c>
     </row>
@@ -3262,12 +3262,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3287,22 +3287,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$0.363976</t>
+          <t>$0.362916</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-5.5%</t>
         </is>
       </c>
     </row>
@@ -3317,17 +3317,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$49.50</t>
+          <t>$49.52</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>7.0%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3347,22 +3347,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$5.51</t>
+          <t>$5.50</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>14.5%</t>
+          <t>14.3%</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$1,712.64</t>
+          <t>$1,713.06</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3417,12 +3417,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -3442,17 +3442,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.6%</t>
         </is>
       </c>
     </row>

--- a/crypto.xlsx
+++ b/crypto.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$20,159.37</t>
+          <t>$20,154.65</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,12 +481,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-6.7%</t>
+          <t>-6.8%</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,534.47</t>
+          <t>$1,534.65</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -531,22 +531,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1.00</t>
+          <t>$0.999892</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$0.999624</t>
+          <t>$0.999319</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$283.85</t>
+          <t>$283.83</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$0.331173</t>
+          <t>$0.330966</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -681,22 +681,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$0.447702</t>
+          <t>$0.447117</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>-3.8%</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$32.07</t>
+          <t>$32.04</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-12.2%</t>
+          <t>-12.3%</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$0.063391732628</t>
+          <t>$0.063358041412</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -751,12 +751,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-8.9%</t>
+          <t>-9.0%</t>
         </is>
       </c>
     </row>
@@ -771,22 +771,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$7.22</t>
+          <t>$7.21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>-3.3%</t>
         </is>
       </c>
     </row>
@@ -801,22 +801,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$0.000012407318</t>
+          <t>$0.000012376992</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-8.4%</t>
+          <t>-8.6%</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -861,22 +861,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$1,494.72</t>
+          <t>$1,492.47</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.1%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-5.4%</t>
+          <t>-5.6%</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$0.811206</t>
+          <t>$0.810266</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-1.6%</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$0.063103243980</t>
+          <t>$0.062987474752</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-4.8%</t>
+          <t>-5.0%</t>
         </is>
       </c>
     </row>
@@ -951,22 +951,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$19.18</t>
+          <t>$19.16</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-16.8%</t>
+          <t>-16.9%</t>
         </is>
       </c>
     </row>
@@ -981,17 +981,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$20,148.64</t>
+          <t>$20,138.51</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1011,22 +1011,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$5.25</t>
+          <t>$5.24</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
     </row>
@@ -1041,22 +1041,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$33.13</t>
+          <t>$33.07</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>-2.5%</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$16.28</t>
+          <t>$16.26</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-8.9%</t>
+          <t>-9.0%</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$55.33</t>
+          <t>$55.31</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1131,12 +1131,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$27.11</t>
+          <t>$27.07</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>-2.6%</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>4.9%</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-6.4%</t>
+          <t>-6.5%</t>
         </is>
       </c>
     </row>
@@ -1221,22 +1221,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$0.122003</t>
+          <t>$0.121853</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>-5.1%</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$3.99</t>
+          <t>$3.98</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-6.0%</t>
+          <t>-6.2%</t>
         </is>
       </c>
     </row>
@@ -1286,17 +1286,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-13.4%</t>
+          <t>-13.5%</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$152.42</t>
+          <t>$152.08</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>-2.0%</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$0.105009</t>
+          <t>$0.104926</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1351,12 +1351,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-5.9%</t>
+          <t>-6.0%</t>
         </is>
       </c>
     </row>
@@ -1371,22 +1371,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$118.29</t>
+          <t>$118.48</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-1.1%</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$0.296258</t>
+          <t>$0.296019</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>-4.1%</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-11.7%</t>
+          <t>-11.9%</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$0.084182183085</t>
+          <t>$0.084123267681</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>-3.5%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$0.024674757503</t>
+          <t>$0.024643048303</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-7.6%</t>
+          <t>-7.7%</t>
         </is>
       </c>
     </row>
@@ -1521,22 +1521,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$6.64</t>
+          <t>$6.63</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.3%</t>
         </is>
       </c>
     </row>
@@ -1551,22 +1551,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$5.96</t>
+          <t>$5.95</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-7.3%</t>
+          <t>-7.5%</t>
         </is>
       </c>
     </row>
@@ -1581,22 +1581,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$4.92</t>
+          <t>$4.91</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-5.6%</t>
+          <t>-5.8%</t>
         </is>
       </c>
     </row>
@@ -1611,22 +1611,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$0.065763830581</t>
+          <t>$0.065688022015</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-5.6%</t>
+          <t>-5.7%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +1641,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$0.999735</t>
+          <t>$0.999071</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$0.981512</t>
+          <t>$0.980925</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-8.9%</t>
+          <t>-9.0%</t>
         </is>
       </c>
     </row>
@@ -1731,22 +1731,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$0.789248</t>
+          <t>$0.788237</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-7.9%</t>
+          <t>-8.1%</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1791,22 +1791,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$99.46</t>
+          <t>$99.23</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-10.4%</t>
+          <t>-10.7%</t>
         </is>
       </c>
     </row>
@@ -1821,22 +1821,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$13.68</t>
+          <t>$13.65</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-6.1%</t>
+          <t>-6.3%</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$52.56</t>
+          <t>$52.53</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1861,12 +1861,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-4.4%</t>
+          <t>-4.5%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$84.52</t>
+          <t>$84.44</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-2.1%</t>
+          <t>-2.2%</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>-4.9%</t>
         </is>
       </c>
     </row>
@@ -1941,22 +1941,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$0.213132</t>
+          <t>$0.212488</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-5.3%</t>
+          <t>-4.6%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>13.2%</t>
+          <t>12.9%</t>
         </is>
       </c>
     </row>
@@ -1976,17 +1976,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
         </is>
       </c>
     </row>
@@ -2006,17 +2006,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11.6%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-16.7%</t>
+          <t>-16.5%</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$53.44</t>
+          <t>$53.47</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2041,12 +2041,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-2.9%</t>
+          <t>-2.8%</t>
         </is>
       </c>
     </row>
@@ -2091,22 +2091,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$0.000051470533</t>
+          <t>$0.000051386368</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>28.3%</t>
+          <t>28.1%</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$0.999592</t>
+          <t>$0.998718</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.0%</t>
         </is>
       </c>
     </row>
@@ -2156,12 +2156,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2181,22 +2181,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$0.000000880646</t>
+          <t>$0.000000875724</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-1.8%</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2211,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$3.47</t>
+          <t>$3.44</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-1.6%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>12.8%</t>
+          <t>11.9%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>12.0%</t>
+          <t>11.4%</t>
         </is>
       </c>
     </row>
@@ -2241,22 +2241,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$63.46</t>
+          <t>$63.06</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-3.4%</t>
         </is>
       </c>
     </row>
@@ -2271,22 +2271,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$0.288846</t>
+          <t>$0.288425</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-2.7%</t>
+          <t>-2.9%</t>
         </is>
       </c>
     </row>
@@ -2331,17 +2331,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$20,102.27</t>
+          <t>$20,098.01</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2361,22 +2361,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$6.14</t>
+          <t>$6.13</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-11.0%</t>
+          <t>-11.2%</t>
         </is>
       </c>
     </row>
@@ -2391,12 +2391,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$0.105149</t>
+          <t>$0.104977</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>-3.5%</t>
         </is>
       </c>
     </row>
@@ -2426,17 +2426,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>9.1%</t>
+          <t>9.0%</t>
         </is>
       </c>
     </row>
@@ -2451,22 +2451,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$1.00</t>
+          <t>$0.996549</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.6%</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$803.05</t>
+          <t>$802.67</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-4.6%</t>
+          <t>-4.7%</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$0.236438</t>
+          <t>$0.236214</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-5.4%</t>
+          <t>-5.5%</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$0.280241</t>
+          <t>$0.279627</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-8.8%</t>
+          <t>-9.0%</t>
         </is>
       </c>
     </row>
@@ -2601,12 +2601,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$0.977749</t>
+          <t>$0.976748</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
     </row>
@@ -2636,17 +2636,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>25.1%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -2666,17 +2666,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-6.1%</t>
+          <t>-6.2%</t>
         </is>
       </c>
     </row>
@@ -2696,17 +2696,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-4.2%</t>
+          <t>-4.3%</t>
         </is>
       </c>
     </row>
@@ -2721,22 +2721,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$0.059490550936</t>
+          <t>$0.059871553757</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>-2.7%</t>
         </is>
       </c>
     </row>
@@ -2746,27 +2746,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BitDAO</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$0.561398</t>
+          <t>$1,727.13</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>17.0%</t>
+          <t>-0.7%</t>
         </is>
       </c>
     </row>
@@ -2776,27 +2776,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>BitDAO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$1,727.79</t>
+          <t>$0.560185</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>16.7%</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2816,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-10.9%</t>
+          <t>-11.1%</t>
         </is>
       </c>
     </row>
@@ -2841,22 +2841,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$4.00</t>
+          <t>$3.99</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>1.1%</t>
         </is>
       </c>
     </row>
@@ -2876,17 +2876,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-41.9%</t>
+          <t>-41.8%</t>
         </is>
       </c>
     </row>
@@ -2901,22 +2901,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$0.977449</t>
+          <t>$0.975554</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>5.5%</t>
         </is>
       </c>
     </row>
@@ -2926,27 +2926,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Zilliqa</t>
+          <t>Arweave</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$0.036751488602</t>
+          <t>$10.82</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>-14.7%</t>
         </is>
       </c>
     </row>
@@ -2956,27 +2956,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Arweave</t>
+          <t>Zilliqa</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$10.83</t>
+          <t>$0.036737600247</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-14.6%</t>
+          <t>-3.1%</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$0.898056</t>
+          <t>$0.896542</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>11.0%</t>
         </is>
       </c>
     </row>
@@ -3021,22 +3021,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$0.345190</t>
+          <t>$0.344625</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>-6.7%</t>
+          <t>-6.9%</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$46.99</t>
+          <t>$46.95</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3061,12 +3061,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3086,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3111,22 +3111,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$0.369225</t>
+          <t>$0.369921</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>-7.7%</t>
+          <t>-7.5%</t>
         </is>
       </c>
     </row>
@@ -3141,17 +3141,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$0.006456866969</t>
+          <t>$0.006454831499</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$0.522495</t>
+          <t>$0.521795</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>-8.8%</t>
+          <t>-9.0%</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3201,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$0.021972589898</t>
+          <t>$0.021950641104</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3227,22 +3227,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$2.41</t>
+          <t>$2.43</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-17.7%</t>
+          <t>-17.0%</t>
         </is>
       </c>
     </row>
@@ -3262,17 +3262,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>-7.7%</t>
+          <t>-7.8%</t>
         </is>
       </c>
     </row>
@@ -3287,17 +3287,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$0.362916</t>
+          <t>$0.362751</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3317,22 +3317,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$49.52</t>
+          <t>$49.43</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>-2.8%</t>
         </is>
       </c>
     </row>
@@ -3352,17 +3352,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>14.4%</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>-7.9%</t>
+          <t>-8.0%</t>
         </is>
       </c>
     </row>
@@ -3407,12 +3407,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$1,713.06</t>
+          <t>$1,711.32</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
     </row>
@@ -3442,17 +3442,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>5.7%</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>3.4%</t>
         </is>
       </c>
     </row>
